--- a/examples/link.xlsx
+++ b/examples/link.xlsx
@@ -48,25 +48,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>{{nothing}}=SIN({{fm}})</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   {%op link2%}   {{name}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{{xxx}}=HYPERLINK("{{url}}", "{{name}}")</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   {%op link,url,nothing%}   {{name}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   {%op link1,url%}   {{name}}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1415,7 +1403,7 @@
   <dimension ref="C4:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1438,24 +1426,18 @@
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="7" spans="3:4" ht="15">
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="3:4" ht="15">
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="3:4" ht="15">
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
